--- a/src/main/resources/Excel/Boss.xlsx
+++ b/src/main/resources/Excel/Boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9120"/>
+    <workbookView windowWidth="21216" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -29,15 +29,6 @@
   <si>
     <t>狂血妖王</t>
   </si>
-  <si>
-    <t>熔岩巨兽</t>
-  </si>
-  <si>
-    <t>嗜血将军</t>
-  </si>
-  <si>
-    <t>黄泉魔尊</t>
-  </si>
 </sst>
 </file>
 
@@ -45,8 +36,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -58,6 +49,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -66,43 +58,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,23 +87,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +118,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -173,12 +156,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -197,6 +181,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,187 +202,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,32 +396,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,6 +431,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -473,35 +493,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,10 +501,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +513,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1032,39 +1023,6 @@
       </c>
       <c r="C2">
         <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Excel/Boss.xlsx
+++ b/src/main/resources/Excel/Boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="8280"/>
+    <workbookView windowWidth="21216" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>hp</t>
+  </si>
+  <si>
+    <t>sendmoney</t>
   </si>
   <si>
     <t>狂血妖王</t>
@@ -49,23 +52,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,6 +82,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -118,53 +172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,13 +191,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +399,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,6 +438,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -455,41 +486,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -513,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,15 +998,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,16 +1019,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>150</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
